--- a/RamanAnalysis/Raman - Lotentzian Fitting/202501_RamanReferences/InputParameters.xlsx
+++ b/RamanAnalysis/Raman - Lotentzian Fitting/202501_RamanReferences/InputParameters.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SWCNTs\RamanAnalysis\RamanFits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SWCNTs\RamanAnalysis\Raman - Lotentzian Fitting\202501_RamanReferences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632E75BE-6B0F-4C19-BBE4-4285F6B0A721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA1BB2-B3E6-412C-9CFD-270C960941E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
-    <sheet name="D241212" sheetId="1" r:id="rId2"/>
+    <sheet name="Params" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D241212'!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Params!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -805,7 +805,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
         <v>155.30000000000001</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D29" si="1">B4+1</f>
+        <f t="shared" ref="D4" si="1">B4+1</f>
         <v>157.30000000000001</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -912,7 +912,7 @@
         <v>158.55000000000001</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D29" si="3">B6+1</f>
+        <f t="shared" ref="D6" si="3">B6+1</f>
         <v>160.55000000000001</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -946,7 +946,7 @@
         <v>164.85</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D29" si="5">B8+1</f>
+        <f t="shared" ref="D8" si="5">B8+1</f>
         <v>166.85</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -980,7 +980,7 @@
         <v>166.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:D29" si="7">B10+1</f>
+        <f t="shared" ref="D10" si="7">B10+1</f>
         <v>168.5</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1014,7 +1014,7 @@
         <v>171</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D29" si="9">B12+1</f>
+        <f t="shared" ref="D12" si="9">B12+1</f>
         <v>173</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1048,7 +1048,7 @@
         <v>172.7</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:D29" si="11">B14+1</f>
+        <f t="shared" ref="D14" si="11">B14+1</f>
         <v>174.7</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1082,7 +1082,7 @@
         <v>176.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:D29" si="13">B16+1</f>
+        <f t="shared" ref="D16" si="13">B16+1</f>
         <v>178.5</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1116,7 +1116,7 @@
         <v>178.4</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:D29" si="15">B18+1</f>
+        <f t="shared" ref="D18" si="15">B18+1</f>
         <v>180.4</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1150,7 +1150,7 @@
         <v>182.8</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:D29" si="17">B20+1</f>
+        <f t="shared" ref="D20" si="17">B20+1</f>
         <v>184.8</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1183,7 +1183,7 @@
         <v>183.34</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ref="D22:D29" si="19">B22+1</f>
+        <f t="shared" ref="D22" si="19">B22+1</f>
         <v>185.34</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1217,7 +1217,7 @@
         <v>187.52</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:D29" si="21">B24+1</f>
+        <f t="shared" ref="D24" si="21">B24+1</f>
         <v>189.52</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1249,7 +1249,7 @@
         <v>186.57</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" ref="D26:D29" si="23">B26+1</f>
+        <f t="shared" ref="D26" si="23">B26+1</f>
         <v>188.57</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1280,7 +1280,7 @@
         <v>194.5</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ref="D28:D29" si="25">B28+1</f>
+        <f t="shared" ref="D28" si="25">B28+1</f>
         <v>196.5</v>
       </c>
       <c r="E28" s="3" t="s">
